--- a/оценка времени.xlsx
+++ b/оценка времени.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project-images\beltapaz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\beltapaz.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,13 +92,13 @@
     <t>нужны адреса диллеров</t>
   </si>
   <si>
-    <t>jQuery UI Datepicker календарь</t>
-  </si>
-  <si>
     <t>настройка окружения, подключение шрифтов (gulp, шаблонизатор, подключение скриптов)</t>
   </si>
   <si>
     <t>index-page.html</t>
+  </si>
+  <si>
+    <t>jQuery UI Datepicker календарь ui-kit datepicker</t>
   </si>
 </sst>
 </file>
@@ -285,7 +285,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,6 +305,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -591,7 +593,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,14 +620,14 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="14">
         <v>6</v>
       </c>
     </row>
@@ -693,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,7 +764,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="10">
         <v>2</v>

--- a/оценка времени.xlsx
+++ b/оценка времени.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>страница</t>
   </si>
@@ -86,9 +86,6 @@
     <t>время на верстку (ч)</t>
   </si>
   <si>
-    <t>на этих страницах должны быть одинаковые блоки "о компании" внизу под табами</t>
-  </si>
-  <si>
     <t>нужны адреса диллеров</t>
   </si>
   <si>
@@ -99,6 +96,15 @@
   </si>
   <si>
     <t>jQuery UI Datepicker календарь ui-kit datepicker</t>
+  </si>
+  <si>
+    <t>card.html</t>
+  </si>
+  <si>
+    <t>products.html</t>
+  </si>
+  <si>
+    <t>services.html</t>
   </si>
 </sst>
 </file>
@@ -593,7 +599,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,42 +636,55 @@
       <c r="B3" s="14">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="14">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="14">
         <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -676,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +783,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="10">
         <v>2</v>

--- a/оценка времени.xlsx
+++ b/оценка времени.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\beltapaz.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\beltapaz.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>страница</t>
   </si>
@@ -110,25 +110,13 @@
     <t>expo.html</t>
   </si>
   <si>
+    <t>переделать карту</t>
+  </si>
+  <si>
     <t>expo-more.html</t>
   </si>
   <si>
     <t>http://jquery.page2page.ru/index.php5/%D0%9A%D0%B0%D0%BB%D0%B5%D0%BD%D0%B4%D0%B0%D1%80%D1%8C_UI</t>
-  </si>
-  <si>
-    <t>переделать карту, ошибки в консоли, прыгают маркеры</t>
-  </si>
-  <si>
-    <t>ко всем  слайдерам добавить fancybox, на всех страницах попапы</t>
-  </si>
-  <si>
-    <t>buyers.html</t>
-  </si>
-  <si>
-    <t>contacts.html</t>
-  </si>
-  <si>
-    <t>news.html</t>
   </si>
 </sst>
 </file>
@@ -640,7 +628,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,9 +646,6 @@
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -742,7 +727,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,42 +742,36 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="5">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="5">
         <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,9 +780,6 @@
       </c>
       <c r="B13" s="5">
         <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">

--- a/оценка времени.xlsx
+++ b/оценка времени.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\beltapaz.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\beltapaz.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>страница</t>
   </si>
@@ -86,9 +86,6 @@
     <t>время на верстку (ч)</t>
   </si>
   <si>
-    <t>нужны адреса диллеров</t>
-  </si>
-  <si>
     <t>настройка окружения, подключение шрифтов (gulp, шаблонизатор, подключение скриптов)</t>
   </si>
   <si>
@@ -105,13 +102,40 @@
   </si>
   <si>
     <t>services.html</t>
+  </si>
+  <si>
+    <t>dealers.html</t>
+  </si>
+  <si>
+    <t>expo.html</t>
+  </si>
+  <si>
+    <t>expo-more.html</t>
+  </si>
+  <si>
+    <t>http://jquery.page2page.ru/index.php5/%D0%9A%D0%B0%D0%BB%D0%B5%D0%BD%D0%B4%D0%B0%D1%80%D1%8C_UI</t>
+  </si>
+  <si>
+    <t>переделать карту, ошибки в консоли, прыгают маркеры</t>
+  </si>
+  <si>
+    <t>ко всем  слайдерам добавить fancybox, на всех страницах попапы</t>
+  </si>
+  <si>
+    <t>buyers.html</t>
+  </si>
+  <si>
+    <t>contacts.html</t>
+  </si>
+  <si>
+    <t>news.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +170,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +196,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -285,13 +322,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,10 +351,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
+    <cellStyle name="Нейтральный" xfId="4" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="3" builtinId="26" customBuiltin="1"/>
   </cellStyles>
@@ -596,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,15 +651,18 @@
     <col min="4" max="4" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -626,10 +670,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -637,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -648,11 +692,11 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -660,11 +704,11 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -672,11 +716,11 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -684,64 +728,85 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -749,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -757,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -783,7 +848,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="10">
         <v>2</v>

--- a/оценка времени.xlsx
+++ b/оценка времени.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>страница</t>
   </si>
@@ -110,13 +110,25 @@
     <t>expo.html</t>
   </si>
   <si>
-    <t>переделать карту</t>
-  </si>
-  <si>
     <t>expo-more.html</t>
   </si>
   <si>
     <t>http://jquery.page2page.ru/index.php5/%D0%9A%D0%B0%D0%BB%D0%B5%D0%BD%D0%B4%D0%B0%D1%80%D1%8C_UI</t>
+  </si>
+  <si>
+    <t>переделать карту, ошибки в консоли, прыгают маркеры</t>
+  </si>
+  <si>
+    <t>ко всем  слайдерам добавить fancybox, на всех страницах попапы</t>
+  </si>
+  <si>
+    <t>buyers.html</t>
+  </si>
+  <si>
+    <t>contacts.html</t>
+  </si>
+  <si>
+    <t>news.html</t>
   </si>
 </sst>
 </file>
@@ -628,7 +640,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +658,9 @@
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -727,7 +742,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -742,36 +757,42 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="16">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="14">
         <v>3</v>
       </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="14">
         <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -780,6 +801,9 @@
       </c>
       <c r="B13" s="5">
         <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">

--- a/оценка времени.xlsx
+++ b/оценка времени.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>страница</t>
   </si>
   <si>
-    <t>beltapaz_главная.psd</t>
-  </si>
-  <si>
     <t>2. beltapaz_продукция_1170px.psd</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>index-page.html</t>
   </si>
   <si>
-    <t>jQuery UI Datepicker календарь ui-kit datepicker</t>
-  </si>
-  <si>
     <t>card.html</t>
   </si>
   <si>
@@ -113,15 +107,6 @@
     <t>expo-more.html</t>
   </si>
   <si>
-    <t>http://jquery.page2page.ru/index.php5/%D0%9A%D0%B0%D0%BB%D0%B5%D0%BD%D0%B4%D0%B0%D1%80%D1%8C_UI</t>
-  </si>
-  <si>
-    <t>переделать карту, ошибки в консоли, прыгают маркеры</t>
-  </si>
-  <si>
-    <t>ко всем  слайдерам добавить fancybox, на всех страницах попапы</t>
-  </si>
-  <si>
     <t>buyers.html</t>
   </si>
   <si>
@@ -129,34 +114,34 @@
   </si>
   <si>
     <t>news.html</t>
+  </si>
+  <si>
+    <t>news-page.html</t>
+  </si>
+  <si>
+    <t>1. beltapaz_главная.psd</t>
+  </si>
+  <si>
+    <t>social-page.html</t>
+  </si>
+  <si>
+    <t>404.html</t>
+  </si>
+  <si>
+    <t>sitemap.html</t>
+  </si>
+  <si>
+    <t>about.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -178,18 +163,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -211,11 +199,87 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
@@ -232,34 +296,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -268,98 +306,66 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Вывод" xfId="1" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
-    <cellStyle name="Нейтральный" xfId="4" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="3">
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="3" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,223 +657,220 @@
     <col min="4" max="4" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="16">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B19" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="14">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <f>SUM(B2:B19)</f>
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" display="http://www.coolwebmasters.com/engine/go.php?url=aHR0cDovL2pxdWVyeXVpLmNvbS9kZW1vcy9kYXRlcGlja2VyLw%3D%3D"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/оценка времени.xlsx
+++ b/оценка времени.xlsx
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +171,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +198,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -247,39 +261,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
@@ -289,41 +275,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,28 +300,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Вывод" xfId="3" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="2" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
@@ -646,7 +590,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,10 +621,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -688,10 +632,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -699,10 +643,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -710,10 +654,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -721,10 +665,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -732,10 +676,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
@@ -743,10 +687,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" t="s">
@@ -754,10 +698,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -765,10 +709,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>3</v>
       </c>
       <c r="C11" t="s">
@@ -776,10 +720,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>2</v>
       </c>
       <c r="C12" t="s">
@@ -787,10 +731,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>3</v>
       </c>
       <c r="C13" t="s">
@@ -798,10 +742,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>2</v>
       </c>
       <c r="C14" t="s">
@@ -809,10 +753,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -820,10 +764,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="8">
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -831,21 +775,21 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="8">
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="8">
         <v>4</v>
       </c>
       <c r="C18" t="s">
